--- a/2_Pivot_Table.xlsx
+++ b/2_Pivot_Table.xlsx
@@ -660,12 +660,6 @@
     <t>MÉDIA</t>
   </si>
   <si>
-    <t>MÍNIMA</t>
-  </si>
-  <si>
-    <t>MÁXIMA</t>
-  </si>
-  <si>
     <t>País</t>
   </si>
   <si>
@@ -736,6 +730,12 @@
   </si>
   <si>
     <t>Soma % de 2025</t>
+  </si>
+  <si>
+    <t>MÍNIMO</t>
+  </si>
+  <si>
+    <t>MÁXIMO</t>
   </si>
 </sst>
 </file>
@@ -1514,6 +1514,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1526,7 +1527,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1573,26 +1573,20 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <u val="singleAccounting"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <u val="none"/>
       </font>
     </dxf>
     <dxf>
-      <font>
-        <u val="none"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <font>
-        <u val="singleAccounting"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1608,63 +1602,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1817,7 +1754,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1855,9 +1791,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1933,56 +1867,6 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-3.0787465294531132E-2"/>
-              <c:y val="3.089212548336771E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="bestFit"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
@@ -1997,56 +1881,6 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-3.2221311253192352E-2"/>
-              <c:y val="-3.3133912439481272E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="bestFit"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -2065,8 +1899,8 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-2.0819826056695034E-2"/>
-              <c:y val="2.5165837895561188E-2"/>
+              <c:x val="-1.1378450103241558E-2"/>
+              <c:y val="3.6417594321318199E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -2129,8 +1963,8 @@
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-2.9501752704807229E-2"/>
-              <c:y val="-2.1393693936868491E-2"/>
+              <c:x val="-1.5559673915219912E-2"/>
+              <c:y val="-1.3892522986363816E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:spPr>
@@ -2429,8 +2263,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.9501752704807229E-2"/>
-                  <c:y val="-2.1393693936868491E-2"/>
+                  <c:x val="-1.5559673915219912E-2"/>
+                  <c:y val="-1.3892522986363816E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2450,8 +2284,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.0819826056695034E-2"/>
-                  <c:y val="2.5165837895561188E-2"/>
+                  <c:x val="-1.1378450103241558E-2"/>
+                  <c:y val="3.6417594321318199E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -2662,48 +2496,6 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.2221311253192352E-2"/>
-                  <c:y val="-3.3133912439481272E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.0787465294531132E-2"/>
-                  <c:y val="3.089212548336771E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2756,9 +2548,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3731,11 +3521,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1867496240"/>
-        <c:axId val="1867497328"/>
+        <c:axId val="739322240"/>
+        <c:axId val="739308096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1867496240"/>
+        <c:axId val="739322240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3778,7 +3568,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1867497328"/>
+        <c:crossAx val="739308096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3786,7 +3576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1867497328"/>
+        <c:axId val="739308096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3839,7 +3629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1867496240"/>
+        <c:crossAx val="739322240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5232,6 +5022,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="247649"/>
+          <a:ext cx="2533650" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Link do arquivo original:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https://www.kaggle.com/datasets/codebynadiia/gdp-per-country-20202025</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8026,7 +7892,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -8883,7 +8749,7 @@
     <dataField name="Contagem de Países" fld="0" subtotal="count" baseField="7" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="20">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="1">
@@ -8892,7 +8758,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="1">
@@ -8901,7 +8767,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="1">
@@ -8910,7 +8776,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="1">
@@ -8919,7 +8785,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="1">
@@ -8928,7 +8794,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="3">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -8937,7 +8803,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8946,7 +8812,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -8955,7 +8821,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9689,7 +9555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D9"/>
+  <dimension ref="A3:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9893,23 +9759,23 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" t="s">
         <v>222</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="35">
+        <v>210</v>
+      </c>
+      <c r="B4" s="31">
         <v>54707.673076923078</v>
       </c>
       <c r="C4" s="28">
@@ -9921,7 +9787,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" s="30">
         <v>1068822.1621621621</v>
@@ -9935,7 +9801,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" s="30">
         <v>973680.16666666663</v>
@@ -9949,7 +9815,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B7" s="30">
         <v>648459.1162790698</v>
@@ -9963,7 +9829,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B8" s="30">
         <v>137880.4</v>
@@ -9977,7 +9843,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B9" s="30">
         <v>599141.44973544974</v>
@@ -9988,6 +9854,51 @@
       <c r="D9" s="26">
         <v>196</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10007,8 +9918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O198"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10029,16 +9940,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -10063,10 +9974,10 @@
         <v>2025</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K2" s="14">
         <f>COUNTA(A3:A198)</f>
@@ -10092,7 +10003,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="17"/>
       <c r="H3" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10118,22 +10029,22 @@
         <v>28372</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J4" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>206</v>
-      </c>
       <c r="L4" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10159,7 +10070,7 @@
         <v>268885</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>198</v>
@@ -10204,7 +10115,7 @@
         <v>4035</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>199</v>
@@ -10249,10 +10160,10 @@
         <v>113343</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7">
         <f>COUNT($B$3:$B$198)</f>
@@ -10294,10 +10205,10 @@
         <v>2373</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K8" s="22">
         <f>MEDIAN($B$3:$B$198)</f>
@@ -10331,7 +10242,7 @@
         <v>683533</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10357,12 +10268,12 @@
         <v>26258</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="N10" s="34"/>
+        <v>209</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="N10" s="35"/>
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10388,22 +10299,22 @@
         <v>4100</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10429,10 +10340,10 @@
         <v>1771681</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="K12" s="7">
         <f>MIN(B3:B198)</f>
@@ -10474,10 +10385,10 @@
         <v>534301</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7">
         <f>MAX(B3:B198)</f>
@@ -10519,7 +10430,7 @@
         <v>78870</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10545,7 +10456,7 @@
         <v>15178</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10571,7 +10482,7 @@
         <v>47829</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10597,7 +10508,7 @@
         <v>467218</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10623,7 +10534,7 @@
         <v>7552</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10649,7 +10560,7 @@
         <v>71561</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10675,7 +10586,7 @@
         <v>684864</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10701,7 +10612,7 @@
         <v>3611</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10727,7 +10638,7 @@
         <v>22236</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10753,7 +10664,7 @@
         <v>3422</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10779,7 +10690,7 @@
         <v>56339</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10805,7 +10716,7 @@
         <v>28807</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10831,7 +10742,7 @@
         <v>19400</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10857,7 +10768,7 @@
         <v>2125958</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10883,7 +10794,7 @@
         <v>16007</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10909,7 +10820,7 @@
         <v>117007</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10935,7 +10846,7 @@
         <v>27056</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10961,7 +10872,7 @@
         <v>6745</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10987,7 +10898,7 @@
         <v>49799</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11013,7 +10924,7 @@
         <v>56011</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11039,7 +10950,7 @@
         <v>2225341</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11065,7 +10976,7 @@
         <v>2786</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11091,7 +11002,7 @@
         <v>2932</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11117,7 +11028,7 @@
         <v>18792</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11143,7 +11054,7 @@
         <v>343823</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11169,7 +11080,7 @@
         <v>19231705</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11195,7 +11106,7 @@
         <v>427766</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11221,7 +11132,7 @@
         <v>1548</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11247,7 +11158,7 @@
         <v>102591</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11273,7 +11184,7 @@
         <v>98951</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11299,7 +11210,7 @@
         <v>38736</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11325,7 +11236,7 @@
         <v>360244</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11351,7 +11262,7 @@
         <v>79119</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11377,7 +11288,7 @@
         <v>449940</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11403,7 +11314,7 @@
         <v>4587</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11429,7 +11340,7 @@
         <v>742</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11455,7 +11366,7 @@
         <v>127828</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11481,7 +11392,7 @@
         <v>125677</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11507,7 +11418,7 @@
         <v>347342</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11533,7 +11444,7 @@
         <v>36749</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11559,7 +11470,7 @@
         <v>12684</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11575,7 +11486,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="17"/>
       <c r="H55" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11601,7 +11512,7 @@
         <v>45004</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11627,7 +11538,7 @@
         <v>5483</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11653,7 +11564,7 @@
         <v>117457</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11679,7 +11590,7 @@
         <v>500</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11705,7 +11616,7 @@
         <v>6257</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11731,7 +11642,7 @@
         <v>303945</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11757,7 +11668,7 @@
         <v>3211292</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11783,7 +11694,7 @@
         <v>20391</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11809,7 +11720,7 @@
         <v>2771</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11835,7 +11746,7 @@
         <v>35353</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11861,7 +11772,7 @@
         <v>4744804</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11887,7 +11798,7 @@
         <v>88332</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11913,7 +11824,7 @@
         <v>267348</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11939,7 +11850,7 @@
         <v>1464</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11965,7 +11876,7 @@
         <v>121177</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11991,7 +11902,7 @@
         <v>30094</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12017,7 +11928,7 @@
         <v>2274</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12043,7 +11954,7 @@
         <v>25822</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12069,7 +11980,7 @@
         <v>33548</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12095,7 +12006,7 @@
         <v>38172</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12121,7 +12032,7 @@
         <v>423999</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12147,7 +12058,7 @@
         <v>237070</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12173,7 +12084,7 @@
         <v>35309</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12199,7 +12110,7 @@
         <v>4187017</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12225,7 +12136,7 @@
         <v>1429743</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12251,7 +12162,7 @@
         <v>341013</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12277,7 +12188,7 @@
         <v>258020</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12303,7 +12214,7 @@
         <v>598840</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12329,7 +12240,7 @@
         <v>583361</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12355,7 +12266,7 @@
         <v>2422855</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12381,7 +12292,7 @@
         <v>94483</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12407,7 +12318,7 @@
         <v>21411</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12433,7 +12344,7 @@
         <v>4186431</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12459,7 +12370,7 @@
         <v>56102</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12485,7 +12396,7 @@
         <v>300538</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12511,7 +12422,7 @@
         <v>131673</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12537,7 +12448,7 @@
         <v>312</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12563,7 +12474,7 @@
         <v>11274</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12589,7 +12500,7 @@
         <v>153101</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12615,7 +12526,7 @@
         <v>19849</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12641,7 +12552,7 @@
         <v>16322</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12667,7 +12578,7 @@
         <v>45535</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12691,7 +12602,7 @@
       </c>
       <c r="G98" s="17"/>
       <c r="H98" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12717,7 +12628,7 @@
         <v>2404</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12743,7 +12654,7 @@
         <v>5166</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12769,7 +12680,7 @@
         <v>47484</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12795,7 +12706,7 @@
         <v>89192</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12821,7 +12732,7 @@
         <v>96613</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12847,7 +12758,7 @@
         <v>53354</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12873,7 +12784,7 @@
         <v>18708</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12899,7 +12810,7 @@
         <v>13959</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12925,7 +12836,7 @@
         <v>444984</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12951,7 +12862,7 @@
         <v>7480</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12977,7 +12888,7 @@
         <v>23208</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13003,7 +12914,7 @@
         <v>25750</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13029,7 +12940,7 @@
         <v>297</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13055,7 +12966,7 @@
         <v>11470</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13081,7 +12992,7 @@
         <v>15495</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13107,7 +13018,7 @@
         <v>1692640</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13133,7 +13044,7 @@
         <v>19462</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13159,7 +13070,7 @@
         <v>25804</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13185,7 +13096,7 @@
         <v>8562</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13211,7 +13122,7 @@
         <v>165835</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13237,7 +13148,7 @@
         <v>23771</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13263,7 +13174,7 @@
         <v>64944</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13289,7 +13200,7 @@
         <v>14214</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13315,7 +13226,7 @@
         <v>169</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13341,7 +13252,7 @@
         <v>46080</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13367,7 +13278,7 @@
         <v>1272011</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13393,7 +13304,7 @@
         <v>248666</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13419,7 +13330,7 @@
         <v>21155</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13445,7 +13356,7 @@
         <v>21874</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13471,7 +13382,7 @@
         <v>188271</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13497,7 +13408,7 @@
         <v>17885</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13523,7 +13434,7 @@
         <v>504276</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13549,7 +13460,7 @@
         <v>104351</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13573,7 +13484,7 @@
       </c>
       <c r="G132" s="17"/>
       <c r="H132" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13599,7 +13510,7 @@
         <v>333</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13621,7 +13532,7 @@
       <c r="F134" s="7"/>
       <c r="G134" s="17"/>
       <c r="H134" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13647,7 +13558,7 @@
         <v>91675</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13673,7 +13584,7 @@
         <v>32835</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13699,7 +13610,7 @@
         <v>45465</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13725,7 +13636,7 @@
         <v>303293</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13751,7 +13662,7 @@
         <v>497495</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13777,7 +13688,7 @@
         <v>979960</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13803,7 +13714,7 @@
         <v>321440</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13829,7 +13740,7 @@
         <v>122522</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13855,7 +13766,7 @@
         <v>222776</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13881,7 +13792,7 @@
         <v>15281</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13907,7 +13818,7 @@
         <v>403395</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13933,7 +13844,7 @@
         <v>2076396</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13959,7 +13870,7 @@
         <v>14771</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13985,7 +13896,7 @@
         <v>1129</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14011,7 +13922,7 @@
         <v>2632</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14037,7 +13948,7 @@
         <v>1242</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14063,7 +13974,7 @@
         <v>1160</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14089,7 +14000,7 @@
         <v>2047</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14115,7 +14026,7 @@
         <v>864</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14141,7 +14052,7 @@
         <v>1083749</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14167,7 +14078,7 @@
         <v>34728</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14193,7 +14104,7 @@
         <v>92549</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14219,7 +14130,7 @@
         <v>2198</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14245,7 +14156,7 @@
         <v>8386</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14271,7 +14182,7 @@
         <v>564774</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14297,7 +14208,7 @@
         <v>147031</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14323,7 +14234,7 @@
         <v>75224</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14349,7 +14260,7 @@
         <v>1898</v>
       </c>
       <c r="H162" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14375,7 +14286,7 @@
         <v>12994</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14401,7 +14312,7 @@
         <v>410338</v>
       </c>
       <c r="H164" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14427,7 +14338,7 @@
         <v>1790322</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14453,7 +14364,7 @@
         <v>3998</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14479,7 +14390,7 @@
         <v>1799511</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14503,7 +14414,7 @@
       </c>
       <c r="G168" s="17"/>
       <c r="H168" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14529,7 +14440,7 @@
         <v>31506</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14555,7 +14466,7 @@
         <v>4506</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14581,7 +14492,7 @@
         <v>620297</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14607,7 +14518,7 @@
         <v>947125</v>
       </c>
       <c r="H172" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14623,7 +14534,7 @@
       <c r="F173" s="7"/>
       <c r="G173" s="17"/>
       <c r="H173" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14649,7 +14560,7 @@
         <v>804889</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14675,7 +14586,7 @@
         <v>14836</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14701,7 +14612,7 @@
         <v>85977</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14727,7 +14638,7 @@
         <v>546224</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14753,7 +14664,7 @@
         <v>2115</v>
       </c>
       <c r="H178" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14779,7 +14690,7 @@
         <v>10023</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14805,7 +14716,7 @@
         <v>568</v>
       </c>
       <c r="H180" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14831,7 +14742,7 @@
         <v>26467</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14857,7 +14768,7 @@
         <v>56291</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14883,7 +14794,7 @@
         <v>1437406</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14909,7 +14820,7 @@
         <v>89054</v>
       </c>
       <c r="H184" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14935,7 +14846,7 @@
         <v>65</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14961,7 +14872,7 @@
         <v>64277</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14987,7 +14898,7 @@
         <v>205742</v>
       </c>
       <c r="H187" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15013,7 +14924,7 @@
         <v>548598</v>
       </c>
       <c r="H188" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15039,7 +14950,7 @@
         <v>3839180</v>
       </c>
       <c r="H189" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15065,7 +14976,7 @@
         <v>30507217</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15091,7 +15002,7 @@
         <v>79731</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15117,7 +15028,7 @@
         <v>132484</v>
       </c>
       <c r="H192" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15143,7 +15054,7 @@
         <v>1267</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15169,7 +15080,7 @@
         <v>108511</v>
       </c>
       <c r="H194" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15195,7 +15106,7 @@
         <v>490970</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15221,7 +15132,7 @@
         <v>17401</v>
       </c>
       <c r="H196" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15247,7 +15158,7 @@
         <v>28910</v>
       </c>
       <c r="H197" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -15273,7 +15184,7 @@
         <v>38172</v>
       </c>
       <c r="H198" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
